--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3790838.435142512</v>
+        <v>3899211.790215646</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498523</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7378199.05497162</v>
+        <v>7365616.209180885</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>277.8398771426465</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>327.4935894361043</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.84287318507987</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>131.2207415233655</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>29.48656692526858</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>279.33781177836</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>77.90220051384378</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>192.1771524889721</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>239.2868020821915</v>
+        <v>30.52182432211823</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>96.55043618621677</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>145.6328172927511</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>172.3645574474265</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>14.90335196317894</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>138.2893995353463</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64713141731118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>101.6969570046971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>141.9101287729434</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>156.8624097380501</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>63.84155641259233</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>44.30292280757659</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096051</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>171.147735951405</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>132.2740511637367</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545305</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>220.9731342426603</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>81.26578411089024</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>126.1348013633914</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.52079624060555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>1531.713134473096</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1162.750617532684</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1162.750617532684</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>882.1042769845561</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>471.7012105172514</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>709.3239917354415</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1005.394558293042</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1646.417767912936</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2287.44097753283</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2487.745304821932</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1905.178892734175</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.838515435611</v>
+        <v>1905.178892734175</v>
       </c>
       <c r="X2" t="n">
-        <v>2106.838515435611</v>
+        <v>1531.713134473096</v>
       </c>
       <c r="Y2" t="n">
-        <v>1716.6991834598</v>
+        <v>1531.713134473096</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>323.3685994072329</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>900.091414510487</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1164.030946005973</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1449.364816439304</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2078.093464274724</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2524.714615879286</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>972.123616140353</v>
+        <v>319.4587080131298</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>319.4587080131298</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>319.4587080131298</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>319.4587080131298</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>319.4587080131298</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>319.4587080131298</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>969.1310894780001</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>679.9944624701022</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>679.9944624701022</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>547.4482589111471</v>
       </c>
       <c r="X4" t="n">
-        <v>1153.772080970593</v>
+        <v>319.4587080131298</v>
       </c>
       <c r="Y4" t="n">
-        <v>1153.772080970593</v>
+        <v>319.4587080131298</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1324.80586733131</v>
+        <v>1975.010820182831</v>
       </c>
       <c r="C5" t="n">
-        <v>955.8433503908984</v>
+        <v>1606.048303242419</v>
       </c>
       <c r="D5" t="n">
-        <v>955.8433503908984</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="E5" t="n">
-        <v>570.0550977926541</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F5" t="n">
-        <v>159.0691930030466</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>147.4048467677395</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477387</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656512</v>
+        <v>1975.010820182831</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395432</v>
+        <v>1975.010820182831</v>
       </c>
       <c r="Y5" t="n">
-        <v>1711.405707395432</v>
+        <v>1975.010820182831</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145195</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>965.5645858344692</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1996.997356780106</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2246.474084645125</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.8272960668249</v>
+        <v>367.625985748637</v>
       </c>
       <c r="C7" t="n">
-        <v>473.8272960668249</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="D7" t="n">
-        <v>473.8272960668249</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1557.757028646372</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1361.128280806234</v>
+        <v>1350.743972063458</v>
       </c>
       <c r="T7" t="n">
-        <v>1138.149800000969</v>
+        <v>1127.809397605439</v>
       </c>
       <c r="U7" t="n">
-        <v>1138.149800000969</v>
+        <v>838.6916206158373</v>
       </c>
       <c r="V7" t="n">
-        <v>883.465311795082</v>
+        <v>838.6916206158373</v>
       </c>
       <c r="W7" t="n">
-        <v>883.465311795082</v>
+        <v>549.2744505788767</v>
       </c>
       <c r="X7" t="n">
-        <v>655.4757608970647</v>
+        <v>549.2744505788767</v>
       </c>
       <c r="Y7" t="n">
-        <v>655.4757608970647</v>
+        <v>549.2744505788767</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829028</v>
+        <v>1676.818760995163</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886166</v>
+        <v>1307.856244054751</v>
       </c>
       <c r="D8" t="n">
-        <v>690.4032258886166</v>
+        <v>949.5905454480007</v>
       </c>
       <c r="E8" t="n">
-        <v>304.6149732903723</v>
+        <v>563.8022928497564</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2050.284519256243</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130042</v>
+        <v>2050.284519256243</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868962</v>
+        <v>1676.818760995163</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>1676.818760995163</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>861.0792809845966</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1617.794731802665</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.1188826722666</v>
+        <v>517.7426251609727</v>
       </c>
       <c r="C10" t="n">
-        <v>452.1188826722666</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="D10" t="n">
-        <v>452.1188826722666</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E10" t="n">
-        <v>304.2057890898735</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>304.2057890898735</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544054</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="W10" t="n">
-        <v>1082.549477544054</v>
+        <v>836.0608974218935</v>
       </c>
       <c r="X10" t="n">
-        <v>854.5599266460365</v>
+        <v>836.0608974218935</v>
       </c>
       <c r="Y10" t="n">
-        <v>633.7673475025064</v>
+        <v>615.2683182783634</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,52 +5032,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092259</v>
+        <v>95.584050252739</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249848</v>
+        <v>590.9096564684976</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1188.288144095049</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.83890577277</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>3658.217393399322</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>4285.815356953929</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>3025.224490384403</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3427.665534358173</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>3206.872955214643</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3964.218603191809</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3805.771724668526</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>3577.782173770509</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>3356.989594626978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>3598.088325557718</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>3377.295746414188</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6454,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>3033.629298638937</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>2864.69311571103</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>2714.576476298694</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>2566.663382716301</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3215.277763469177</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3215.277763469177</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6977,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>3060.83890577277</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>3658.217393399322</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>4285.815356953929</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>4690.833152398593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>2862.291518351956</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>2862.291518351956</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3194.056622594531</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150031</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,40 +7399,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2951.54259528685</v>
+        <v>3012.408157764291</v>
       </c>
       <c r="C46" t="n">
-        <v>2782.606412358944</v>
+        <v>2884.99926749824</v>
       </c>
       <c r="D46" t="n">
-        <v>2632.489772946608</v>
+        <v>2734.882628085904</v>
       </c>
       <c r="E46" t="n">
-        <v>2484.576679364215</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F46" t="n">
-        <v>2337.686731866304</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G46" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
         <v>2337.686731866304</v>
@@ -7828,28 +7830,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4634.751540034345</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4415.150075057287</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>4126.074848401485</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>3871.390360195598</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W46" t="n">
-        <v>3581.973190158637</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X46" t="n">
-        <v>3353.98363926062</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y46" t="n">
-        <v>3133.19106011709</v>
+        <v>3194.056622594531</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>185.8651263285205</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659704</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083451</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>199.7516311504071</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>277.0628188392458</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.9531451156648</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326898</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>175.408559845353</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>245.467010437719</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>55.21102825632967</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>114.1584408891645</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>28.95742156328149</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>44.73700564187209</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>83.79952661609377</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>129.6605885985409</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>181.4067325814606</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>54.56191943763216</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>13.1469968591945</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>65.16817853567893</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.11201973523644</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.505489761039</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>647144.6020808944</v>
+        <v>669957.0452321302</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>647144.6020808944</v>
+        <v>646950.7795362767</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>647144.6020808944</v>
+        <v>646950.7795362766</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>641796.8673299307</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>641796.8673299307</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>641796.8673299307</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>641796.8673299307</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>641796.8673299307</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="F2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176769</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176758</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176773</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977561</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898953</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>500888.8677457503</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165055</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165055</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6287.480531695053</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26436,28 +26438,28 @@
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695053</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695053</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478852</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478853</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478853</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478853</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478853</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695086</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-537879.4205145937</v>
+        <v>-388298.1239698703</v>
       </c>
       <c r="C6" t="n">
-        <v>576872.3630613262</v>
+        <v>405203.5217410233</v>
       </c>
       <c r="D6" t="n">
-        <v>576872.3630613263</v>
+        <v>577967.8815309186</v>
       </c>
       <c r="E6" t="n">
-        <v>172072.4827176075</v>
+        <v>178669.0565964032</v>
       </c>
       <c r="F6" t="n">
-        <v>679557.9243421542</v>
+        <v>679557.9243421536</v>
       </c>
       <c r="G6" t="n">
+        <v>679557.9243421535</v>
+      </c>
+      <c r="H6" t="n">
+        <v>679557.9243421535</v>
+      </c>
+      <c r="I6" t="n">
+        <v>679557.9243421535</v>
+      </c>
+      <c r="J6" t="n">
+        <v>510143.9075161053</v>
+      </c>
+      <c r="K6" t="n">
+        <v>679557.9243421539</v>
+      </c>
+      <c r="L6" t="n">
+        <v>679557.9243421537</v>
+      </c>
+      <c r="M6" t="n">
+        <v>548673.4674379184</v>
+      </c>
+      <c r="N6" t="n">
+        <v>679557.9243421539</v>
+      </c>
+      <c r="O6" t="n">
         <v>679557.9243421538</v>
       </c>
-      <c r="H6" t="n">
-        <v>679557.9243421539</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>679557.9243421538</v>
-      </c>
-      <c r="J6" t="n">
-        <v>511952.7465321714</v>
-      </c>
-      <c r="K6" t="n">
-        <v>663645.5519753413</v>
-      </c>
-      <c r="L6" t="n">
-        <v>683073.269968973</v>
-      </c>
-      <c r="M6" t="n">
-        <v>550465.9762400452</v>
-      </c>
-      <c r="N6" t="n">
-        <v>683073.2699689735</v>
-      </c>
-      <c r="O6" t="n">
-        <v>683073.2699689732</v>
-      </c>
-      <c r="P6" t="n">
-        <v>679557.9243421539</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.725434152237</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>428.2691096918288</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>104.0904929296153</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>21.74737928130872</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>114.403947913548</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>155.3022568132255</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>271.5319856371368</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>69.90315693905302</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>23.65537190572984</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.308016845118999</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>167.5892436595199</v>
+        <v>376.3542214195932</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>83.28154399572053</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>20.67378275205309</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093077</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>223.6976288294637</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,10 +32323,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>652.0478969157701</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32554,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319844</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,16 +32788,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786837</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,28 +33262,28 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33740,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P39" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,10 +34219,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,16 +34447,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>397.4049812900382</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>349.2944314446759</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>202.3276033223249</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>566.6829634324475</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>451.1324763682443</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>65.93752551686885</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065822</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>293.4382460751152</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>583.7788091402757</v>
       </c>
       <c r="P9" t="n">
-        <v>304.632674239197</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134948742</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>81.10138438501926</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,10 +35971,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>509.9138629937518</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875399</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342392</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37084,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P39" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,16 +38095,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3899211.790215646</v>
+        <v>3895055.603907679</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>277.8398771426465</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>322.7591932435946</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>83.95486789250485</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>131.2207415233655</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>26.94336408023611</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>279.33781177836</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>192.1771524889721</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>142.8036059628629</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>30.52182432211823</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>223.551828802917</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96.55043618621677</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>95.73666324888964</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H13" t="n">
-        <v>85.08368458989422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>14.90335196317894</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.2893995353463</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>141.9101287729434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>156.8624097380501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>44.30292280757659</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>171.147735951405</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>104.7777418077832</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>132.2740511637367</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>220.9731342426603</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>81.26578411089024</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>126.1348013633914</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1531.713134473096</v>
+        <v>788.8051472271693</v>
       </c>
       <c r="C2" t="n">
-        <v>1162.750617532684</v>
+        <v>788.8051472271693</v>
       </c>
       <c r="D2" t="n">
-        <v>1162.750617532684</v>
+        <v>788.8051472271693</v>
       </c>
       <c r="E2" t="n">
-        <v>882.1042769845561</v>
+        <v>788.8051472271693</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353527</v>
+        <v>377.8192424375617</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272273</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>471.7012105172514</v>
+        <v>605.2571586872677</v>
       </c>
       <c r="L2" t="n">
-        <v>709.3239917354415</v>
+        <v>842.8799399054598</v>
       </c>
       <c r="M2" t="n">
-        <v>1005.394558293042</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1646.417767912936</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.44097753283</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821932</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4369,13 +4369,13 @@
         <v>1905.178892734175</v>
       </c>
       <c r="W2" t="n">
-        <v>1905.178892734175</v>
+        <v>1552.410237464061</v>
       </c>
       <c r="X2" t="n">
-        <v>1531.713134473096</v>
+        <v>1178.944479202981</v>
       </c>
       <c r="Y2" t="n">
-        <v>1531.713134473096</v>
+        <v>788.8051472271693</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>900.091414510487</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1164.030946005973</v>
+        <v>1425.851530648431</v>
       </c>
       <c r="N3" t="n">
-        <v>1449.364816439304</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
-        <v>2078.093464274724</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879286</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.4587080131298</v>
+        <v>901.5642936328658</v>
       </c>
       <c r="C4" t="n">
-        <v>319.4587080131298</v>
+        <v>901.5642936328658</v>
       </c>
       <c r="D4" t="n">
-        <v>319.4587080131298</v>
+        <v>751.44765422053</v>
       </c>
       <c r="E4" t="n">
-        <v>319.4587080131298</v>
+        <v>603.5345606381369</v>
       </c>
       <c r="F4" t="n">
-        <v>319.4587080131298</v>
+        <v>456.6446131402265</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131298</v>
+        <v>288.3228407333504</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>136.6027521839357</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702562</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702562</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>969.1310894780001</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>679.9944624701022</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>679.9944624701022</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>547.4482589111471</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>319.4587080131298</v>
+        <v>1083.212758463106</v>
       </c>
       <c r="Y4" t="n">
-        <v>319.4587080131298</v>
+        <v>1083.212758463106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1975.010820182831</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.048303242419</v>
+        <v>1163.732948325809</v>
       </c>
       <c r="D5" t="n">
-        <v>1247.782604635669</v>
+        <v>805.4672497190588</v>
       </c>
       <c r="E5" t="n">
-        <v>1247.782604635669</v>
+        <v>805.4672497190588</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>394.4813449294513</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>382.8399071699873</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>79.01537459578549</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477387</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>2257.170226019558</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.010820182831</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.010820182831</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.010820182831</v>
+        <v>1532.695465266221</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421437</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344692</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160212</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1996.997356780106</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2246.474084645125</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.625985748637</v>
+        <v>220.7360382507266</v>
       </c>
       <c r="C7" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D7" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
         <v>51.79985532281972</v>
@@ -4725,52 +4725,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1350.743972063458</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1127.809397605439</v>
+        <v>1502.737603524723</v>
       </c>
       <c r="U7" t="n">
-        <v>838.6916206158373</v>
+        <v>1213.619826535122</v>
       </c>
       <c r="V7" t="n">
-        <v>838.6916206158373</v>
+        <v>958.9353383292348</v>
       </c>
       <c r="W7" t="n">
-        <v>549.2744505788767</v>
+        <v>669.5181682922741</v>
       </c>
       <c r="X7" t="n">
-        <v>549.2744505788767</v>
+        <v>441.5286173942567</v>
       </c>
       <c r="Y7" t="n">
-        <v>549.2744505788767</v>
+        <v>220.7360382507266</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1676.818760995163</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C8" t="n">
-        <v>1307.856244054751</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>949.5905454480007</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>563.8022928497564</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4819,7 +4819,7 @@
         <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4834,22 +4834,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2050.284519256243</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>2050.284519256243</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X8" t="n">
-        <v>1676.818760995163</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="Y8" t="n">
-        <v>1676.818760995163</v>
+        <v>1974.043506081419</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682818</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845966</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802665</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.7426251609727</v>
+        <v>1016.553075282091</v>
       </c>
       <c r="C10" t="n">
-        <v>348.8064422330658</v>
+        <v>847.616892354184</v>
       </c>
       <c r="D10" t="n">
-        <v>198.6898028207301</v>
+        <v>697.5002529418482</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>549.5871593594551</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>402.6972118615447</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>836.0608974218935</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="X10" t="n">
-        <v>836.0608974218935</v>
+        <v>1418.994119255861</v>
       </c>
       <c r="Y10" t="n">
-        <v>615.2683182783634</v>
+        <v>1198.201540112331</v>
       </c>
     </row>
     <row r="11">
@@ -5044,16 +5044,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.584050252739</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.584050252739</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684976</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.288144095049</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1815.886107649656</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474262</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>261.8464821474262</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>250.5823850776717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3025.224490384403</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3427.665534358173</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3206.872955214643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4218.903091397696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3964.218603191809</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668526</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300425</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>3807.864035926977</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>4435.461999481584</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>4654.193497445481</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3195.647281583948</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3026.711098656041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2876.594459243706</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673039</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3642.838752636078</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3598.088325557718</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3377.295746414188</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3033.629298638937</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>2864.69311571103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>2714.576476298694</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2566.663382716301</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2419.773435218391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3215.277763469177</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>3215.277763469177</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6779,22 +6779,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>888.6771326738537</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>738.560493261518</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>590.6473996791249</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7013,19 +7013,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3012.408157764291</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3012.408157764291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2862.291518351956</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>2862.291518351956</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3194.056622594531</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>696.7084350851671</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>546.5917956728314</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3012.408157764291</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>2884.99926749824</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>2734.882628085904</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.255922673039</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>3642.838752636078</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>3414.849201738061</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>3194.056622594531</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>185.8651263285205</v>
+        <v>151.6735093079757</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659704</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369.6030205083451</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>196.3826133675376</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>277.0628188392458</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326898</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>175.408559845353</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>245.467010437719</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H13" t="n">
-        <v>55.21102825632967</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>150.6207863290899</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.95742156328149</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>83.79952661609377</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>129.6605885985409</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>181.4067325814606</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>54.56191943763216</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>40.64330621514807</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>13.1469968591945</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>65.16817853567893</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>41.11201973523644</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>669957.0452321302</v>
+        <v>669957.0452321299</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>646950.7795362766</v>
+        <v>646950.7795362767</v>
       </c>
     </row>
     <row r="5">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977555</v>
-      </c>
       <c r="K2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977561</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898953</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457503</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26438,16 +26438,16 @@
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388298.1239698703</v>
+        <v>-388298.1239698732</v>
       </c>
       <c r="C6" t="n">
-        <v>405203.5217410233</v>
+        <v>405203.5217410264</v>
       </c>
       <c r="D6" t="n">
-        <v>577967.8815309186</v>
+        <v>577967.8815309184</v>
       </c>
       <c r="E6" t="n">
-        <v>178669.0565964032</v>
+        <v>178321.677342046</v>
       </c>
       <c r="F6" t="n">
-        <v>679557.9243421536</v>
+        <v>679210.5450877969</v>
       </c>
       <c r="G6" t="n">
-        <v>679557.9243421535</v>
+        <v>679210.5450877969</v>
       </c>
       <c r="H6" t="n">
-        <v>679557.9243421535</v>
+        <v>679210.545087797</v>
       </c>
       <c r="I6" t="n">
-        <v>679557.9243421535</v>
+        <v>679210.5450877969</v>
       </c>
       <c r="J6" t="n">
-        <v>510143.9075161053</v>
+        <v>509796.5282617484</v>
       </c>
       <c r="K6" t="n">
-        <v>679557.9243421539</v>
+        <v>679210.5450877966</v>
       </c>
       <c r="L6" t="n">
-        <v>679557.9243421537</v>
+        <v>679210.5450877966</v>
       </c>
       <c r="M6" t="n">
-        <v>548673.4674379184</v>
+        <v>548326.0881835615</v>
       </c>
       <c r="N6" t="n">
-        <v>679557.9243421539</v>
+        <v>679210.545087797</v>
       </c>
       <c r="O6" t="n">
-        <v>679557.9243421538</v>
+        <v>679210.5450877968</v>
       </c>
       <c r="P6" t="n">
-        <v>679557.9243421538</v>
+        <v>679210.5450877965</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152237</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918288</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>104.0904929296153</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>89.52854545144959</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>30.82450860698135</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>155.3022568132255</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>37.89220136744362</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>69.90315693905302</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>2.308016845118999</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>77.90162275057551</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>376.3542214195932</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>146.179271875552</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.28154399572053</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>70.55976360183988</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31287,40 +31287,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31524,40 +31524,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,43 +31600,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>223.6976288294637</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>397.6543049213403</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,22 +32311,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N18" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786837</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33271,7 +33271,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,13 +33499,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>397.4049812900382</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,10 +33654,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33745,10 +33745,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N36" t="n">
-        <v>416.7024900153332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>491.597732526532</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33997,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34216,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M42" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,19 +34447,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>397.4049812900382</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34468,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>349.2944314446759</v>
+        <v>315.1028144241328</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352465</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352465</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223249</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>484.5986441082781</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>451.1324763682443</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686885</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>543.7698733561873</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352465</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>293.4382460751152</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225505</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,19 +35102,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057228</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>583.7788091402757</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,19 +35339,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>81.10138438501926</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>263.67989750701</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N18" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342392</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37147,13 +37147,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N36" t="n">
-        <v>285.3607779319999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>349.0014880820875</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37645,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M42" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,19 +38095,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>259.5635423156792</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38116,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3895055.603907679</v>
+        <v>3896816.134210465</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>322.7591932435946</v>
+        <v>228.519045684743</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>14.96483578850492</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.95486789250485</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -913,10 +913,10 @@
         <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>262.8940858810166</v>
       </c>
       <c r="I5" t="n">
-        <v>26.94336408023611</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>158.7162633552378</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>223.551828802917</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>95.73666324888964</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>54.04974316665349</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>120.7871326503968</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>230.9734461329145</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.8051472271693</v>
+        <v>788.8051472271698</v>
       </c>
       <c r="C2" t="n">
-        <v>788.8051472271693</v>
+        <v>788.8051472271698</v>
       </c>
       <c r="D2" t="n">
-        <v>788.8051472271693</v>
+        <v>788.8051472271698</v>
       </c>
       <c r="E2" t="n">
-        <v>788.8051472271693</v>
+        <v>788.8051472271698</v>
       </c>
       <c r="F2" t="n">
-        <v>377.8192424375617</v>
+        <v>377.8192424375622</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4375,7 +4375,7 @@
         <v>1178.944479202981</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.8051472271693</v>
+        <v>788.8051472271698</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152943</v>
+        <v>1161.91199915294</v>
       </c>
       <c r="M3" t="n">
-        <v>1425.851530648431</v>
+        <v>1425.851530648426</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315626</v>
+        <v>1711.185401081757</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>1949.990352833214</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>901.5642936328658</v>
+        <v>680.7717144893304</v>
       </c>
       <c r="C4" t="n">
-        <v>901.5642936328658</v>
+        <v>511.8355315614235</v>
       </c>
       <c r="D4" t="n">
-        <v>751.44765422053</v>
+        <v>361.7188921490878</v>
       </c>
       <c r="E4" t="n">
-        <v>603.5345606381369</v>
+        <v>213.8057985666946</v>
       </c>
       <c r="F4" t="n">
-        <v>456.6446131402265</v>
+        <v>66.91585106878429</v>
       </c>
       <c r="G4" t="n">
-        <v>288.3228407333504</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6027521839357</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="X4" t="n">
-        <v>1083.212758463106</v>
+        <v>1083.2127584631</v>
       </c>
       <c r="Y4" t="n">
-        <v>1083.212758463106</v>
+        <v>862.4201793195701</v>
       </c>
     </row>
     <row r="5">
@@ -4546,46 +4546,46 @@
         <v>1532.695465266221</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.732948325809</v>
+        <v>1163.73294832581</v>
       </c>
       <c r="D5" t="n">
-        <v>805.4672497190588</v>
+        <v>805.4672497190593</v>
       </c>
       <c r="E5" t="n">
-        <v>805.4672497190588</v>
+        <v>805.4672497190593</v>
       </c>
       <c r="F5" t="n">
-        <v>394.4813449294513</v>
+        <v>394.4813449294517</v>
       </c>
       <c r="G5" t="n">
-        <v>382.8399071699873</v>
+        <v>382.8399071699877</v>
       </c>
       <c r="H5" t="n">
-        <v>79.01537459578549</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4649,10 +4649,10 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128335</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291482</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
         <v>1262.420995951774</v>
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1587.443666017298</v>
+        <v>1652.934136166469</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.481149076886</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>128.9317632314551</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4834,22 +4834,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140986</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="X8" t="n">
-        <v>2364.182838057231</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="Y8" t="n">
-        <v>1974.043506081419</v>
+        <v>2039.533976230591</v>
       </c>
     </row>
     <row r="9">
@@ -4868,16 +4868,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4886,13 +4886,13 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N9" t="n">
         <v>1652.830557277516</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1016.553075282091</v>
+        <v>1087.825563768798</v>
       </c>
       <c r="C10" t="n">
-        <v>847.616892354184</v>
+        <v>918.8893808408909</v>
       </c>
       <c r="D10" t="n">
-        <v>697.5002529418482</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E10" t="n">
-        <v>549.5871593594551</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F10" t="n">
-        <v>402.6972118615447</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G10" t="n">
         <v>305.993511610141</v>
@@ -4962,52 +4962,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="W10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="X10" t="n">
-        <v>1418.994119255861</v>
+        <v>1490.266607742567</v>
       </c>
       <c r="Y10" t="n">
-        <v>1198.201540112331</v>
+        <v>1269.474028599037</v>
       </c>
     </row>
     <row r="11">
@@ -5032,16 +5032,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>215.8238677453423</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>215.8238677453423</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5375,7 +5375,7 @@
         <v>2022.116874200839</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>95.58405025273903</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6071,19 +6071,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6208,19 +6208,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6232,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,22 +6782,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,10 +7019,10 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7496,19 +7496,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7651,19 +7651,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>151.673509307991</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8069,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>196.3826133675376</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>196.3826133675482</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.73700564187209</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>55.2110282563296</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>669957.0452321299</v>
+        <v>669957.0452321302</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>646950.7795362767</v>
+        <v>646950.7795362766</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
     <row r="6">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="I2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="L2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151604</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
@@ -26438,7 +26438,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
@@ -26456,7 +26456,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388298.1239698732</v>
+        <v>-388298.1239698707</v>
       </c>
       <c r="C6" t="n">
-        <v>405203.5217410264</v>
+        <v>405203.5217410236</v>
       </c>
       <c r="D6" t="n">
-        <v>577967.8815309184</v>
+        <v>577967.8815309182</v>
       </c>
       <c r="E6" t="n">
-        <v>178321.677342046</v>
+        <v>178634.3186709676</v>
       </c>
       <c r="F6" t="n">
-        <v>679210.5450877969</v>
+        <v>679523.1864167182</v>
       </c>
       <c r="G6" t="n">
-        <v>679210.5450877969</v>
+        <v>679523.1864167183</v>
       </c>
       <c r="H6" t="n">
-        <v>679210.545087797</v>
+        <v>679523.1864167177</v>
       </c>
       <c r="I6" t="n">
-        <v>679210.5450877969</v>
+        <v>679523.1864167182</v>
       </c>
       <c r="J6" t="n">
-        <v>509796.5282617484</v>
+        <v>510109.1695906697</v>
       </c>
       <c r="K6" t="n">
-        <v>679210.5450877966</v>
+        <v>679523.1864167178</v>
       </c>
       <c r="L6" t="n">
-        <v>679210.5450877966</v>
+        <v>679523.1864167182</v>
       </c>
       <c r="M6" t="n">
-        <v>548326.0881835615</v>
+        <v>548638.7295124829</v>
       </c>
       <c r="N6" t="n">
-        <v>679210.545087797</v>
+        <v>679523.1864167181</v>
       </c>
       <c r="O6" t="n">
-        <v>679210.5450877968</v>
+        <v>679523.1864167181</v>
       </c>
       <c r="P6" t="n">
-        <v>679210.5450877965</v>
+        <v>679523.1864167177</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918289</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>89.52854545144959</v>
+        <v>183.7686930103011</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>151.6737188943024</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>30.82450860698135</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>37.89220136744314</v>
       </c>
       <c r="I5" t="n">
-        <v>37.89220136744362</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>47.84264259052296</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>146.179271875552</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>70.55976360183988</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>171.6599122223837</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>537.6437863443698</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32323,10 +32323,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33502,7 +33502,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>397.4049812900382</v>
+        <v>161.7871425275306</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33520,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,13 +33739,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>395.1848490935921</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34216,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>590.4022545401851</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34231,7 +34231,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>327.118592441407</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>315.1028144241465</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>484.5986441082781</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>370.4522708965467</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>543.7698733561873</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>362.3108833671837</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>395.0475418999253</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>259.5635423156792</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>253.0508151715738</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>451.847874760311</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
